--- a/Document/Danh sách/Danh sách.xlsx
+++ b/Document/Danh sách/Danh sách.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_WWWFW7D1\00 Project\SuaChuaBG\Danh sách\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThanhTrung\SC-B-c-Giang\Document\Danh sách\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC61C1-0B5B-431A-9DF5-5FECEBF2FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E06C46-47D9-429C-847C-FB81D2D308A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{BB814B4C-52FD-4758-9763-4BDDB39E62D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{BB814B4C-52FD-4758-9763-4BDDB39E62D6}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSC_Backup" sheetId="4" state="hidden" r:id="rId1"/>
@@ -11731,13 +11731,13 @@
   </sheetPr>
   <dimension ref="A1:L1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A1290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1301" sqref="H1301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="20" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5546875" style="20" customWidth="1"/>
@@ -58622,7 +58622,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -62988,7 +62988,9 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
